--- a/database/macro/population.xlsx
+++ b/database/macro/population.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="جمعیت" sheetId="1" r:id="rId1"/>
-    <sheet name="ازدواج" sheetId="2" r:id="rId2"/>
-    <sheet name="بعد خانوار" sheetId="3" r:id="rId3"/>
+    <sheet name="داده های تاریخی" sheetId="4" r:id="rId1"/>
+    <sheet name="جمعیت" sheetId="1" r:id="rId2"/>
+    <sheet name="ازدواج" sheetId="2" r:id="rId3"/>
+    <sheet name="بعد خانوار" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>سال</t>
   </si>
@@ -49,6 +50,27 @@
   <si>
     <t>نسبت طلاق به ازدواج</t>
   </si>
+  <si>
+    <t>شرح</t>
+  </si>
+  <si>
+    <t>1390*</t>
+  </si>
+  <si>
+    <t>كل كشور</t>
+  </si>
+  <si>
+    <t>نقاط شهري</t>
+  </si>
+  <si>
+    <t>نقاط روستايي</t>
+  </si>
+  <si>
+    <t>رشد ده ساله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رشد سالاانه </t>
+  </si>
 </sst>
 </file>
 
@@ -56,10 +78,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,14 +173,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -435,10 +470,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1335</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1345</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1355</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1365</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1375</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1385</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10">
+        <v>18954704</v>
+      </c>
+      <c r="C2" s="10">
+        <v>25788722</v>
+      </c>
+      <c r="D2" s="10">
+        <v>33708744</v>
+      </c>
+      <c r="E2" s="10">
+        <v>49445010</v>
+      </c>
+      <c r="F2" s="10">
+        <v>60055488</v>
+      </c>
+      <c r="G2" s="10">
+        <v>70495782</v>
+      </c>
+      <c r="H2" s="10">
+        <v>75149669</v>
+      </c>
+      <c r="I2" s="10">
+        <v>79926270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5953563</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9794246</v>
+      </c>
+      <c r="D3" s="10">
+        <v>15854680</v>
+      </c>
+      <c r="E3" s="10">
+        <v>26844561</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36817789</v>
+      </c>
+      <c r="G3" s="10">
+        <v>48259964</v>
+      </c>
+      <c r="H3" s="10">
+        <v>53646661</v>
+      </c>
+      <c r="I3" s="10">
+        <v>59146847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
+        <v>13001141</v>
+      </c>
+      <c r="C4" s="10">
+        <v>15994476</v>
+      </c>
+      <c r="D4" s="10">
+        <v>17854064</v>
+      </c>
+      <c r="E4" s="10">
+        <v>22600449</v>
+      </c>
+      <c r="F4" s="10">
+        <v>23237699</v>
+      </c>
+      <c r="G4" s="10">
+        <v>22235818</v>
+      </c>
+      <c r="H4" s="10">
+        <v>21446783</v>
+      </c>
+      <c r="I4" s="10">
+        <v>20730625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1345</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1355</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1365</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1375</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1385</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11">
+        <f>C2/B2-1</f>
+        <v>0.36054469645107612</v>
+      </c>
+      <c r="C7" s="11">
+        <f>D2/C2-1</f>
+        <v>0.30711184524770174</v>
+      </c>
+      <c r="D7" s="11">
+        <f>E2/D2-1</f>
+        <v>0.46683038679815536</v>
+      </c>
+      <c r="E7" s="11">
+        <f>F2/E2-1</f>
+        <v>0.21459148253787386</v>
+      </c>
+      <c r="F7" s="11">
+        <f>G2/F2-1</f>
+        <v>0.17384412894954737</v>
+      </c>
+      <c r="G7" s="12">
+        <f>I2/G2-1</f>
+        <v>0.13377379089148911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13">
+        <f>POWER(1+B7,0.1)-1</f>
+        <v>3.126738134890461E-2</v>
+      </c>
+      <c r="C8" s="13">
+        <f>POWER(1+C7,0.1)-1</f>
+        <v>2.7143861506964573E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <f>POWER(1+D7,0.1)-1</f>
+        <v>3.9053691942679603E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <f>POWER(1+E7,0.1)-1</f>
+        <v>1.9630981699111594E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <f>POWER(1+F7,0.1)-1</f>
+        <v>1.6157538117376635E-2</v>
+      </c>
+      <c r="G8" s="13">
+        <f>POWER(1+G7,0.1)-1</f>
+        <v>1.2634317690555008E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,211 +723,426 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B2" s="3">
-        <v>60304</v>
+        <f>'داده های تاریخی'!I3/1000</f>
+        <v>59146.847000000002</v>
       </c>
       <c r="C2" s="3">
-        <v>20749</v>
+        <f>'داده های تاریخی'!I4/1000</f>
+        <v>20730.625</v>
       </c>
       <c r="D2" s="3">
         <f>B2+C2</f>
-        <v>81053</v>
+        <v>79877.472000000009</v>
       </c>
       <c r="E2" s="6">
         <f>B2/D2</f>
-        <v>0.74400700776035433</v>
+        <v>0.74046969087854952</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B3" s="3">
-        <v>61311</v>
+        <v>60304</v>
       </c>
       <c r="C3" s="3">
-        <v>20652</v>
+        <v>20749</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" si="0">B3+C3</f>
-        <v>81963</v>
+        <f>B3+C3</f>
+        <v>81053</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E11" si="1">B3/D3</f>
-        <v>0.74803264887815235</v>
+        <f>B3/D3</f>
+        <v>0.74400700776035433</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>1397</v>
+      </c>
+      <c r="B4" s="3">
+        <v>61311</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20652</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D12" si="0">B4+C4</f>
+        <v>81963</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E12" si="1">B4/D4</f>
+        <v>0.74803264887815235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1398</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>62201</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>20509</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>82710</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>0.75203723854431148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1399</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>63053</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>20353</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>83406</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>0.75597678824065417</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1400</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>63876</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>20179</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>84055</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>0.7599309975611207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1401</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>64655</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>20045</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>84700</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>0.76334120425029517</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1402</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>65427</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>19902</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>85329</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>0.76676159336216287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1403</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>66207</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>19754</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>85961</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>0.77019811309780017</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1404</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>66968</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>19595</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>86563</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>0.77363307648764479</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1405</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>67708</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>19426</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>87134</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>0.77705602864553447</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1396</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B3/B2-1</f>
+        <v>1.9564069070325818E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:D15" si="2">C3/C2-1</f>
+        <v>8.8636980312939428E-4</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4716640005832726E-2</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1397</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:D16" si="3">B4/B3-1</f>
+        <v>1.6698726452639923E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="3"/>
+        <v>-4.6749240927274061E-3</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1227221694446898E-2</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1398</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" ref="B17:D17" si="4">B5/B4-1</f>
+        <v>1.4516155339172387E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="4"/>
+        <v>-6.9242688359480997E-3</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="4"/>
+        <v>9.1138684528384584E-3</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1399</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ref="B18:D18" si="5">B6/B5-1</f>
+        <v>1.3697528978633855E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="5"/>
+        <v>-7.6064166951094192E-3</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="5"/>
+        <v>8.4149437794704962E-3</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:D19" si="6">B7/B6-1</f>
+        <v>1.3052511379315845E-2</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="6"/>
+        <v>-8.5491082395715567E-3</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="6"/>
+        <v>7.7812147807112542E-3</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" ref="B20:D20" si="7">B8/B7-1</f>
+        <v>1.2195503788590356E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="7"/>
+        <v>-6.6405669260122258E-3</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="7"/>
+        <v>7.6735470822675289E-3</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1402</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" ref="B21:D21" si="8">B9/B8-1</f>
+        <v>1.1940298507462588E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="8"/>
+        <v>-7.1339486156148935E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="8"/>
+        <v>7.4262101534827707E-3</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" ref="B22:D22" si="9">B10/B9-1</f>
+        <v>1.1921683708560726E-2</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="9"/>
+        <v>-7.4364385488895346E-3</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="9"/>
+        <v>7.4066261177325732E-3</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" ref="B23:D23" si="10">B11/B10-1</f>
+        <v>1.1494252873563315E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="10"/>
+        <v>-8.0490027336235226E-3</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="10"/>
+        <v>7.0031758588195991E-3</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1405</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" ref="B24:D24" si="11">B12/B11-1</f>
+        <v>1.1050053757018174E-2</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="11"/>
+        <v>-8.6246491451901219E-3</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="11"/>
+        <v>6.5963517900258228E-3</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +1177,7 @@
         <v>142841</v>
       </c>
       <c r="D2" s="6">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D12" si="0">C2/B2</f>
         <v>0.16328567247985806</v>
       </c>
     </row>
@@ -723,7 +1192,7 @@
         <v>150324</v>
       </c>
       <c r="D3" s="6">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.18112023596090451</v>
       </c>
     </row>
@@ -738,7 +1207,7 @@
         <v>155369</v>
       </c>
       <c r="D4" s="6">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.20060218485680678</v>
       </c>
     </row>
@@ -753,7 +1222,7 @@
         <v>163569</v>
       </c>
       <c r="D5" s="6">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.22582297424909295</v>
       </c>
     </row>
@@ -768,7 +1237,7 @@
         <v>163765</v>
       </c>
       <c r="D6" s="6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.23895020369095005</v>
       </c>
     </row>
@@ -783,7 +1252,7 @@
         <v>181049</v>
       </c>
       <c r="D7" s="6">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.25691058525703969</v>
       </c>
     </row>
@@ -798,7 +1267,7 @@
         <v>182533</v>
       </c>
       <c r="D8" s="6">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.29861418987120197</v>
       </c>
     </row>
@@ -813,7 +1282,7 @@
         <v>179276</v>
       </c>
       <c r="D9" s="6">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.32294417523823249</v>
       </c>
     </row>
@@ -828,7 +1297,7 @@
         <v>178731</v>
       </c>
       <c r="D10" s="6">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.33411847838888237</v>
       </c>
     </row>
@@ -843,7 +1312,7 @@
         <v>187393</v>
       </c>
       <c r="D11" s="6">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.33405768682258985</v>
       </c>
     </row>
@@ -858,8 +1327,149 @@
         <v>203330</v>
       </c>
       <c r="D12" s="6">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.35692280686356254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1391</v>
+      </c>
+      <c r="B15" s="7">
+        <f>B3/B2-1</f>
+        <v>-5.123960895847246E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <f>C3/C2-1</f>
+        <v>5.238691972192866E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1392</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" ref="B16:C19" si="1">B4/B3-1</f>
+        <v>-6.6815829044011288E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3560841914797468E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1393</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="1"/>
+        <v>-6.480071993626968E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>5.2777581113349514E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1394</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B6/B5-1</f>
+        <v>-5.3804650957306355E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C6/C5-1</f>
+        <v>1.1982710660332074E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1395</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8254094246460193E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10554147711660011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1396</v>
+      </c>
+      <c r="B20" s="7">
+        <f>B8/B7-1</f>
+        <v>-0.1326051913111097</v>
+      </c>
+      <c r="C20" s="7">
+        <f>C8/C7-1</f>
+        <v>8.1966760379785786E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1397</v>
+      </c>
+      <c r="B21" s="7">
+        <f>B9/B8-1</f>
+        <v>-9.1837118640463178E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <f>C9/C8-1</f>
+        <v>-1.7843348873902265E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1398</v>
+      </c>
+      <c r="B22" s="7">
+        <f>B10/B9-1</f>
+        <v>-3.6382468971231985E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <f>C10/C9-1</f>
+        <v>-3.0400053548718109E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1399</v>
+      </c>
+      <c r="B23" s="7">
+        <f>B11/B10-1</f>
+        <v>4.8654691335176636E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <f>C11/C10-1</f>
+        <v>4.8463892665514097E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B24" s="7">
+        <f>B12/B11-1</f>
+        <v>1.5535867084997212E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C12/C11-1</f>
+        <v>8.5045866174296769E-2</v>
       </c>
     </row>
   </sheetData>
@@ -867,12 +1477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/macro/population.xlsx
+++ b/database/macro/population.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="داده های تاریخی" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>سال</t>
   </si>
@@ -173,7 +173,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -188,6 +188,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -205,6 +206,3891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>جمعیت</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'داده های تاریخی'!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1390*</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1395</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'داده های تاریخی'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18954704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25788722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33708744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49445010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60055488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70495782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75149669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79926270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2717-4C33-834E-FB503EB2CBAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="503815647"/>
+        <c:axId val="587431247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="503815647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587431247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587431247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503815647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>تعداد ازدواج و طلاق</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ازدواج!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ازدواج!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>874792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>774513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>724324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>685352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>704716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>611267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>555130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>534933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>560960</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>569675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6424-45B7-95D3-8DE8D79BEA4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ازدواج!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ازدواج!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>142841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6424-45B7-95D3-8DE8D79BEA4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496439007"/>
+        <c:axId val="496437343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496439007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496437343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496437343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496439007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>ازدواج</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t> و طلاق</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ازدواج!$B$27:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94876039104152754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88536817894996755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82799568354534558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78344566479803202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80558121244821623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69875696165488477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63458513566653563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61149736165854285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64124957704231411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65121194523955406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E36-418B-BD6D-1584985D1F86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ازدواج!$C$27:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0523869197219287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0877059107679168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1451123977009403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1464845527544612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2674862259435316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2778753999201911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2550738233420375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2512583921983185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3118992446146414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4234708522062993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E36-418B-BD6D-1584985D1F86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="583069743"/>
+        <c:axId val="583070991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="583069743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583070991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583070991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583069743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>بعد خانوار</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43755484478183154"/>
+          <c:y val="2.5974034827703864E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9839979446370364E-2"/>
+          <c:y val="0.16489183109787342"/>
+          <c:w val="0.93790887397814671"/>
+          <c:h val="0.73901173910479567"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'بعد خانوار'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'بعد خانوار'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DC5-4D6F-90A9-61BBC43168D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496209775"/>
+        <c:axId val="496210607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496209775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496210607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496210607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496209775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -657,33 +4543,34 @@
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <f>POWER(1+B7,0.1)-1</f>
+        <f t="shared" ref="B8:G8" si="0">POWER(1+B7,0.1)-1</f>
         <v>3.126738134890461E-2</v>
       </c>
       <c r="C8" s="13">
-        <f>POWER(1+C7,0.1)-1</f>
+        <f t="shared" si="0"/>
         <v>2.7143861506964573E-2</v>
       </c>
       <c r="D8" s="13">
-        <f>POWER(1+D7,0.1)-1</f>
+        <f t="shared" si="0"/>
         <v>3.9053691942679603E-2</v>
       </c>
       <c r="E8" s="13">
-        <f>POWER(1+E7,0.1)-1</f>
+        <f t="shared" si="0"/>
         <v>1.9630981699111594E-2</v>
       </c>
       <c r="F8" s="13">
-        <f>POWER(1+F7,0.1)-1</f>
+        <f t="shared" si="0"/>
         <v>1.6157538117376635E-2</v>
       </c>
       <c r="G8" s="13">
-        <f>POWER(1+G7,0.1)-1</f>
+        <f t="shared" si="0"/>
         <v>1.2634317690555008E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -691,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,10 +5026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,11 +5299,11 @@
         <v>1396</v>
       </c>
       <c r="B20" s="7">
-        <f>B8/B7-1</f>
+        <f t="shared" ref="B20:C24" si="2">B8/B7-1</f>
         <v>-0.1326051913111097</v>
       </c>
       <c r="C20" s="7">
-        <f>C8/C7-1</f>
+        <f t="shared" si="2"/>
         <v>8.1966760379785786E-3</v>
       </c>
     </row>
@@ -1425,11 +5312,11 @@
         <v>1397</v>
       </c>
       <c r="B21" s="7">
-        <f>B9/B8-1</f>
+        <f t="shared" si="2"/>
         <v>-9.1837118640463178E-2</v>
       </c>
       <c r="C21" s="7">
-        <f>C9/C8-1</f>
+        <f t="shared" si="2"/>
         <v>-1.7843348873902265E-2</v>
       </c>
     </row>
@@ -1438,11 +5325,11 @@
         <v>1398</v>
       </c>
       <c r="B22" s="7">
-        <f>B10/B9-1</f>
+        <f t="shared" si="2"/>
         <v>-3.6382468971231985E-2</v>
       </c>
       <c r="C22" s="7">
-        <f>C10/C9-1</f>
+        <f t="shared" si="2"/>
         <v>-3.0400053548718109E-3</v>
       </c>
     </row>
@@ -1451,11 +5338,11 @@
         <v>1399</v>
       </c>
       <c r="B23" s="7">
-        <f>B11/B10-1</f>
+        <f t="shared" si="2"/>
         <v>4.8654691335176636E-2</v>
       </c>
       <c r="C23" s="7">
-        <f>C11/C10-1</f>
+        <f t="shared" si="2"/>
         <v>4.8463892665514097E-2</v>
       </c>
     </row>
@@ -1464,16 +5351,171 @@
         <v>1400</v>
       </c>
       <c r="B24" s="7">
-        <f>B12/B11-1</f>
+        <f t="shared" si="2"/>
         <v>1.5535867084997212E-2</v>
       </c>
       <c r="C24" s="7">
-        <f>C12/C11-1</f>
+        <f t="shared" si="2"/>
         <v>8.5045866174296769E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1390</v>
+      </c>
+      <c r="B27" s="14">
+        <f>B2/B$2</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
+        <f>C2/C$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1391</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" ref="B28:C37" si="3">B3/B$2</f>
+        <v>0.94876039104152754</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0523869197219287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1392</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="3"/>
+        <v>0.88536817894996755</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0877059107679168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1393</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="3"/>
+        <v>0.82799568354534558</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" si="3"/>
+        <v>1.1451123977009403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1394</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.78344566479803202</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="3"/>
+        <v>1.1464845527544612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1395</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" si="3"/>
+        <v>0.80558121244821623</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2674862259435316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1396</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" si="3"/>
+        <v>0.69875696165488477</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2778753999201911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1397</v>
+      </c>
+      <c r="B34" s="14">
+        <f t="shared" si="3"/>
+        <v>0.63458513566653563</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2550738233420375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1398</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="3"/>
+        <v>0.61149736165854285</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2512583921983185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1399</v>
+      </c>
+      <c r="B36" s="14">
+        <f t="shared" si="3"/>
+        <v>0.64124957704231411</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" si="3"/>
+        <v>1.3118992446146414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="3"/>
+        <v>0.65121194523955406</v>
+      </c>
+      <c r="C37" s="14">
+        <f t="shared" si="3"/>
+        <v>1.4234708522062993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1481,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,5 +5611,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>